--- a/新聞API供應商(1).xlsx
+++ b/新聞API供應商(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="供應商 1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>http://news.youth.cn/jsxw/202012/t20201212_12615890.htm</t>
-  </si>
-  <si>
-    <t>天行数据-上海觉克信息科技</t>
   </si>
   <si>
     <t>高级会员1万次 99元/年 每个免费接口每天赠送1W次
@@ -228,9 +225,6 @@
     <t>https://mini.eastday.com/a/201212221515967.html</t>
   </si>
   <si>
-    <t xml:space="preserve"> 六派 - 北京库斯曼科技有限公司</t>
-  </si>
-  <si>
     <t>免费会员最多调用100次/天;白银会员600次/天￥180/年;钻石会员15万次/天￥600/年</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     </r>
   </si>
   <si>
-    <t>网易新闻API</t>
-  </si>
-  <si>
     <t>最多调用0.50元/100次</t>
   </si>
   <si>
@@ -302,38 +293,6 @@
   </si>
   <si>
     <t>https://c.m.163.com/news/a/FTQV3P6C000189FH.html?spss=newsapp</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iData数据商城</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 数据采集公司</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> ¥ 3.00 元/100次</t>
@@ -424,9 +383,6 @@
   </si>
   <si>
     <t>http://m.news.cctv.com/2020/12/14/ARTIjrbAejhaciqHLT9NKhmA201214.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 挖数据 - 厦门挖码信息技术有限公司</t>
   </si>
   <si>
     <t xml:space="preserve">黄金会员 20000次/天0.9折49元/月147元/季度294元/半年588元/年1176元/二年;铂金会员50000次/天0.85折99元/月297元/季度594元/半年1188元/年2376元/二年;钻石会员1000000次/天0.8折199元/月597元/季度1194元/半年2388元/年4776元/二年 </t>
@@ -495,9 +451,6 @@
     <t>https://jingji.cctv.com/2020/12/16/ARTIfC4fFpoaXLvb4JF8Y1rL201216.shtml</t>
   </si>
   <si>
-    <t>州讯互联 - 州讯网络技术有限公司</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -580,6 +533,52 @@
   </si>
   <si>
     <t>万维易源 - 昆明秀派科技有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天行数据-上海觉克信息科技</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 六派 - 北京库斯曼科技有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易新闻API</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>iData数据商城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 数据采集公司</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 挖数据 - 厦门挖码信息技术有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>州讯互联 - 州讯网络技术有限公司</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,13 +794,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1133,7 +1135,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1144,7 +1146,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1155,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1162,7 +1164,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +1173,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1212,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,8 +1230,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>83</v>
+      <c r="B1" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1237,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1251,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1259,22 +1261,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1283,7 +1285,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1294,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1301,12 +1303,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1315,7 +1317,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1360,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1368,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1382,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1390,22 +1392,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1414,7 +1416,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1425,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1432,12 +1434,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -1446,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1491,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1521,7 +1523,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1532,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1558,8 +1560,8 @@
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>97</v>
+      <c r="C9" s="21" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1567,17 +1569,17 @@
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="C10" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1602,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1653,7 +1655,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1664,7 +1666,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1673,7 +1675,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1682,7 +1684,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1691,7 +1693,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1733,7 +1735,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1757,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1771,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1779,22 +1781,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1805,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1812,21 +1814,21 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1835,7 +1837,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1880,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1888,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1902,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1910,22 +1912,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1934,7 +1936,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1943,7 +1945,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1952,12 +1954,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1966,7 +1968,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1994,7 +1996,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2010,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2018,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2032,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2040,22 +2042,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2064,7 +2066,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2075,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -2082,12 +2084,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2096,7 +2098,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2124,7 +2126,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2140,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2151,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2165,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2173,22 +2175,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2197,7 +2199,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2206,7 +2208,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -2215,12 +2217,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -2229,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2257,7 +2259,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2273,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2281,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2295,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -2303,22 +2305,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
@@ -2327,7 +2329,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
@@ -2336,7 +2338,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
@@ -2345,12 +2347,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2359,7 +2361,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2404,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2415,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2429,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2437,22 +2439,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2461,7 +2463,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2470,7 +2472,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -2479,12 +2481,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -2493,7 +2495,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2522,7 +2524,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2538,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
@@ -2546,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2560,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2571,22 +2573,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
@@ -2595,7 +2597,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
@@ -2604,21 +2606,21 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -2627,7 +2629,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">

--- a/新聞API供應商(1).xlsx
+++ b/新聞API供應商(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="供應商 1" sheetId="1" r:id="rId1"/>
@@ -476,9 +476,6 @@
     <t>头条,社会,国内,国际,娱乐,体育,军事,科技,财经,时尚</t>
   </si>
   <si>
-    <t>京东万象  - 京东云</t>
-  </si>
-  <si>
     <t>1万次 ≈ 0.020元/次￥ 200;4万次 ≈ 0.013元/次￥ 500;9万次 ≈ 0.011元/次￥ 1000</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>https://mini.eastday.com/a/201217160406447.html?qid=juheshuju&amp;referrer=</t>
   </si>
   <si>
-    <t>进制数据是 BinSTD (杭州势然网络科技有限公司)</t>
-  </si>
-  <si>
     <t>http://mil.sina.cn/zgjq/2016-03-16/detail-ifxqhmve9235380.d.html?vt=4&amp;pos=108</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -537,10 +531,6 @@
   </si>
   <si>
     <t>天行数据-上海觉克信息科技</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 六派 - 北京库斯曼科技有限公司</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -579,6 +569,18 @@
   </si>
   <si>
     <t>州讯互联 - 州讯网络技术有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东万象  - 京东云</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>进制数据是 BinSTD (杭州势然网络科技有限公司)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 六派 - 北京库斯曼科技有限公司</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -797,14 +799,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1135,7 +1137,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1146,7 +1148,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1157,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1166,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1173,7 +1175,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1231,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1265,7 +1267,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1276,7 +1278,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1287,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1296,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1305,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1346,7 +1348,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,8 +1363,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>80</v>
+      <c r="B1" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1370,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1384,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1392,22 +1394,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1418,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +1427,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1434,12 +1436,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -1448,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1477,7 +1479,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1492,8 +1494,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>87</v>
+      <c r="B1" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1523,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1534,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1561,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1570,7 +1572,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1579,7 +1581,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1621,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1655,7 +1657,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1666,7 +1668,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1675,7 +1677,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1684,7 +1686,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1693,7 +1695,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1785,7 +1787,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1796,7 +1798,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1807,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1814,7 +1816,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1825,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1916,7 +1918,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1927,7 +1929,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +1938,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -1945,7 +1947,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -1954,7 +1956,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1995,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2012,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2046,7 +2048,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2057,7 +2059,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2066,7 +2068,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2075,7 +2077,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2086,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -2144,8 +2146,8 @@
       <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>96</v>
+      <c r="C1" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2179,7 +2181,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2190,7 +2192,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2199,7 +2201,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2208,7 +2210,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -2217,7 +2219,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -2275,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2309,7 +2311,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2320,7 +2322,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
@@ -2329,7 +2331,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
@@ -2338,7 +2340,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
@@ -2347,7 +2349,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
@@ -2443,7 +2445,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2454,7 +2456,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2463,7 +2465,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
@@ -2472,7 +2474,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -2481,7 +2483,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
@@ -2577,7 +2579,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2588,7 +2590,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
@@ -2597,7 +2599,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="13" t="s">
         <v>14</v>
       </c>
@@ -2606,7 +2608,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
@@ -2615,7 +2617,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="13" t="s">
         <v>18</v>
       </c>

--- a/新聞API供應商(1).xlsx
+++ b/新聞API供應商(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="供應商 1" sheetId="1" r:id="rId1"/>
@@ -1478,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1997,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2526,7 +2526,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/新聞API供應商(1).xlsx
+++ b/新聞API供應商(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="供應商 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="131">
   <si>
     <t>數據供應商名名稱</t>
   </si>
@@ -583,12 +583,175 @@
     <t xml:space="preserve"> 六派 - 北京库斯曼科技有限公司</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>￥600/年  接口调用次数不限次</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.接後能轉繁體嗎？有片能提供嗎？</t>
+  </si>
+  <si>
+    <t>答:没有繁体的</t>
+  </si>
+  <si>
+    <t>答:没有繁体的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.每條字數大概多少，相有幾張？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:这个字数没有限制的，图片只有一张</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.片是指短视频，看有没有源是能有视频的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:视频内容返回视频,图文内容返回图文</t>
+  </si>
+  <si>
+    <t>从你们的api接口返回的数据的内容，
+转载到我的网站系统上，我也标明了来自什么网站，例如来源于新华网；这样不会有什么法律上的问题吧？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答：这个我们不能给您保证，新闻这个本来是开放的内容。一般大的网站不会去深究这些。建议加上这样的话:"如有侵权，请联系删除"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.接後能轉繁體嗎？有片能提供嗎？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答：新闻接口之后返回简体，
+https://www.showapi.com/apiGateway/view/99/113可以借助此接口转为繁体；有图片提供</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答：字数不固定，我们也不知道新闻会固定多少字数，图片也是一样的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:返回的内容里面有视频的链接，不会单独返回一个特定的视频超链接</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>答:我司不承担数据的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责权风险问题。具体情况您需要咨询相关机构哦，谢谢！</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:视频内容返回视频  图文内容返回图文</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答：复制了全文,全文最好征得同意,如果只是跳转url那就没事</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.片是指短视频，看有没有源是能有视频的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:转化字体也可以实现,可能在接口另外开发个功能吧,这样拿到的结果就是繁体的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:字数和图片数量也是看原网页的内容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">答:返回的内容里面有视频的链接，不会单独返回一个特定的视频超链接
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:可以写上来源,建议在下面在写一行小字,如有侵权,请联系删除,
+这个也看情况,您想写就写上,不想写也可以,这个需要以给对方造成的损失作为考量的依据.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:这个字数和图片没有限制的，有的多有的少</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:返回的内容里面没有短视频,资讯就是图文</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答：不会法律上的问题，这是商用数据，请放心使用。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:我们的采集的也是央视的，如果他们有要求，我们也会删除的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">答：没有繁体转换的哦.
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答：字数不固定，看数据源返回,照片数目是不固定的吧，有时会少于三张，有时多于三张</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>答:这个我们不做保证，免费接口一般都是自用学习的较多</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从你们的api接口返回的数据的内容，
+转载到我的网站系统上，我也标明了来自什么网站，例如来源于新华网；这样不会有什么法律上的问题吧？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(注明下：这个接口返回是没有内容字段的只有超链接)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +822,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -674,7 +845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -723,6 +894,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -732,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +1011,69 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1193,31 +1460,149 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.15">
-      <c r="O27" s="1" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="O28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,16 +1708,192 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="O27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1478,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1502,8 +2063,8 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1604,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1713,16 +2274,93 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="27" spans="15:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O27" s="1" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1737,7 +2375,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1843,16 +2481,99 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="27" spans="15:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1867,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1955,13 +2676,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>42</v>
+      <c r="C10" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1974,16 +2695,109 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="27" spans="15:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+    </row>
+    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+    </row>
+    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1998,7 +2812,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2104,16 +2918,114 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -2128,7 +3040,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2258,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2358,8 +3270,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -2367,16 +3279,157 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="O27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -2523,10 +3576,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2635,16 +3688,156 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C12" s="9"/>
-    </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="O27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>

--- a/新聞API供應商(1).xlsx
+++ b/新聞API供應商(1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.fang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\2ddw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="供應商 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="137">
   <si>
     <t>數據供應商名名稱</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>文章來源</t>
-  </si>
-  <si>
-    <t>中国网、</t>
   </si>
   <si>
     <t>文章例子</t>
@@ -538,49 +535,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>iData数据商城</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 数据采集公司</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 挖数据 - 厦门挖码信息技术有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>州讯互联 - 州讯网络技术有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>京东万象  - 京东云</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>进制数据是 BinSTD (杭州势然网络科技有限公司)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 六派 - 北京库斯曼科技有限公司</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -744,6 +699,84 @@
       </rPr>
       <t>(注明下：这个接口返回是没有内容字段的只有超链接)</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5分钟更新一次</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时更新一次</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每10分钟更新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般获取的都是当前的资讯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪体育，央视，封面新闻，参考消息，新浪财经，新浪科技，中国网，
+红星新闻，环球网，国家卫健委网站，健康时报，新华社，新浪新闻综合，新京报，
+北京日报客户端,澎湃新闻,海外网,中国新闻网,新华网,网易商业，每日经济新闻，
+新浪美股,新华每日电讯,新浪财经-自媒体综合,创事记,证券时报网,网易体育,新浪娱乐
+,网易娱乐,稿事编辑部,军事自媒体,观察者网,环球时报,中国青年报,网易教育综合,封面新闻
+,南方都市报,第一财经,新浪汽车-编译,财联社,DoNews,新浪科技综合,手机中国,IT之家,NBA综合
+,证券时报,问董秘,新浪星座,新浪博客,摘星工厂星吧,网易时尚,网易健康,中国金融信息网,快科技,
+新浪体育,人民网,体育综合,金羊网,新浪育儿,北京商报,生活大火锅,你是谁,教育大家谈,科学育婴手册,
+韬韬爸爸的育儿圣经</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻是不定期更新的</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>北青网,澎湃新闻,沈阳疾控信息微信公号,央广网,新疆玛纳斯县人民医院,凤凰网江西综合,燕赵都市报,北晚新视觉,人民网,读特,看看新闻Knews,央视新闻客户端,中国新闻网,搜狐城市-银川,济南疾控微健康,湖北健神,花开智能养老,大河健康报社,北京大学首钢医院,新民晚报,读特,看看新闻Knews</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 六派 - 北京库斯曼科技有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 挖数据 - 厦门挖码信息技术有限公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>进制数据是 BinSTD (杭州势然网络科技有限公司)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>iData数据商城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 数据采集公司</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>州讯互联 - 州讯网络技术有限公司</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1006,74 +1039,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1354,7 +1387,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,7 +1418,9 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1400,128 +1435,128 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
@@ -1558,7 +1593,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="O28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
@@ -1577,7 +1612,7 @@
       <c r="C31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="A20:C20"/>
@@ -1587,6 +1622,7 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1601,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1618,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1626,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1640,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1648,130 +1684,130 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
@@ -1803,7 +1839,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -1908,7 +1944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1925,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1933,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1947,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1955,63 +1991,63 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2019,7 +2055,7 @@
     </row>
     <row r="27" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2076,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2056,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2064,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2086,63 +2122,63 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2150,7 +2186,7 @@
     </row>
     <row r="27" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2204,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2184,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2192,21 +2228,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2214,63 +2252,63 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2280,87 +2318,87 @@
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="36"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+    </row>
+    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-    </row>
-    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -2375,7 +2413,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2391,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2399,21 +2437,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2421,130 +2461,130 @@
         <v>7</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="10" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="35"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+    </row>
+    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-    </row>
-    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-    </row>
-    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-    </row>
-    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
@@ -2558,7 +2598,7 @@
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2568,12 +2608,12 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -2588,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2605,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2613,21 +2653,23 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2635,130 +2677,130 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
@@ -2782,7 +2824,7 @@
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2854,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2828,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2836,7 +2878,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2850,7 +2892,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2858,130 +2900,130 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
@@ -3010,7 +3052,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3082,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3056,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3067,7 +3109,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3081,7 +3123,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3089,63 +3131,63 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="202.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -3153,7 +3195,7 @@
     </row>
     <row r="27" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3172,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3189,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3197,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3211,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.15">
@@ -3219,130 +3261,130 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
@@ -3374,7 +3416,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -3461,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3472,7 +3514,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3486,7 +3528,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3494,63 +3536,63 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -3558,7 +3600,7 @@
     </row>
     <row r="27" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3578,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3595,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
@@ -3603,24 +3645,26 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -3628,111 +3672,111 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
@@ -3740,18 +3784,18 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
@@ -3783,7 +3827,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="O27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
